--- a/InputFiles/CDS/TC10_CDS_Filter_Prim_Diag_Chordoma.xlsx
+++ b/InputFiles/CDS/TC10_CDS_Filter_Prim_Diag_Chordoma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0717new\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75127164-28E8-41DF-95D2-26B1C19ED3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF521AFE-2ED1-45DB-B462-BBFE95CA8CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE70FEB1-7084-4373-B676-EB3693A27A7B}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
